--- a/ui/QMS Issue.xlsx
+++ b/ui/QMS Issue.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>序号</t>
   </si>
@@ -155,6 +155,40 @@
   </si>
   <si>
     <t>Q015</t>
+  </si>
+  <si>
+    <t>推進頁-&gt;上升 下拉有多個請選擇</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>推進頁-</t>
+  </si>
+  <si>
+    <t>批准駁回功能未做</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>待辦事項</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭</t>
+  </si>
+  <si>
+    <t>熱點評審-時間編輯保存功能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>熱點評審審批</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作計劃分頁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>推進頁-</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -284,7 +318,23 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="样式 1" xfId="1"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -628,7 +678,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -703,7 +753,9 @@
       <c r="G2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="5"/>
+      <c r="I2" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="J2" t="s">
         <v>18</v>
       </c>
@@ -727,6 +779,9 @@
       <c r="G3" t="s">
         <v>24</v>
       </c>
+      <c r="I3" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="J3" t="s">
         <v>25</v>
       </c>
@@ -738,21 +793,59 @@
       <c r="A4" t="s">
         <v>27</v>
       </c>
+      <c r="B4" s="8">
+        <v>42942</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
+      <c r="B5" s="8">
+        <v>42942</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
+      <c r="B6" s="8">
+        <v>42942</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
+      <c r="B7" s="8">
+        <v>42942</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -802,14 +895,38 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" stopIfTrue="1" operator="equal">
       <formula>"关闭"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" stopIfTrue="1" operator="equal">
       <formula>"延迟"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
+    <cfRule type="cellIs" dxfId="7" priority="7" stopIfTrue="1" operator="equal">
+      <formula>"关闭"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" stopIfTrue="1" operator="equal">
+      <formula>"延迟"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"关闭"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"延迟"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"关闭"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"延迟"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
     <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>"关闭"</formula>
     </cfRule>
@@ -818,10 +935,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I5">
       <formula1>"关闭,进行中,未开始,延迟"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ui/QMS Issue.xlsx
+++ b/ui/QMS Issue.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
   <si>
     <t>序号</t>
   </si>
@@ -188,6 +188,26 @@
   </si>
   <si>
     <t>推進頁-</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>scroller加载更多</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>推进页工作计划获取不到数据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>推進頁-</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>热点评审获取不到数据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>待办事项</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -289,7 +309,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -313,12 +333,111 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="样式 1" xfId="1"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="22">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -678,7 +797,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -802,7 +921,9 @@
       <c r="E4" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="5"/>
+      <c r="I4" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -817,7 +938,9 @@
       <c r="E5" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="5"/>
+      <c r="I5" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -832,6 +955,9 @@
       <c r="E6" t="s">
         <v>46</v>
       </c>
+      <c r="I6" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -846,21 +972,54 @@
       <c r="E7" t="s">
         <v>48</v>
       </c>
+      <c r="I7" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>31</v>
       </c>
+      <c r="B8" s="8">
+        <v>42943</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
+      <c r="B9" s="8">
+        <v>42944</v>
+      </c>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
+      <c r="B10" s="8">
+        <v>42944</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -895,30 +1054,62 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="9" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="17" stopIfTrue="1" operator="equal">
       <formula>"关闭"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="18" stopIfTrue="1" operator="equal">
       <formula>"延迟"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="7" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="15" stopIfTrue="1" operator="equal">
       <formula>"关闭"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="16" stopIfTrue="1" operator="equal">
       <formula>"延迟"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="13" stopIfTrue="1" operator="equal">
       <formula>"关闭"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="14" stopIfTrue="1" operator="equal">
       <formula>"延迟"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
+    <cfRule type="cellIs" dxfId="15" priority="11" stopIfTrue="1" operator="equal">
+      <formula>"关闭"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="12" stopIfTrue="1" operator="equal">
+      <formula>"延迟"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="cellIs" dxfId="13" priority="9" stopIfTrue="1" operator="equal">
+      <formula>"关闭"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="10" stopIfTrue="1" operator="equal">
+      <formula>"延迟"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="cellIs" dxfId="11" priority="7" stopIfTrue="1" operator="equal">
+      <formula>"关闭"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="8" stopIfTrue="1" operator="equal">
+      <formula>"延迟"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6">
+    <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"关闭"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"延迟"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9">
     <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
       <formula>"关闭"</formula>
     </cfRule>
@@ -926,7 +1117,7 @@
       <formula>"延迟"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
+  <conditionalFormatting sqref="I10">
     <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>"关闭"</formula>
     </cfRule>
@@ -935,7 +1126,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I7 I9:I10">
       <formula1>"关闭,进行中,未开始,延迟"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ui/QMS Issue.xlsx
+++ b/ui/QMS Issue.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
   <si>
     <t>序号</t>
   </si>
@@ -208,6 +208,22 @@
   </si>
   <si>
     <t>待办事项</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>代办编辑(返回与取消要一致)，提交取消按钮样式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>推进页 保存按钮太小</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日历控件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后质量(IOS无法下滑)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -341,39 +357,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="样式 1" xfId="1"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <fill>
         <patternFill>
@@ -797,7 +781,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1025,21 +1009,57 @@
       <c r="A11" t="s">
         <v>34</v>
       </c>
+      <c r="B11" s="8">
+        <v>42968</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
+      <c r="B12" s="8">
+        <v>42968</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>36</v>
       </c>
+      <c r="B13" s="8">
+        <v>42968</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>37</v>
       </c>
+      <c r="B14" s="8">
+        <v>42968</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1054,58 +1074,58 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="21" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="17" stopIfTrue="1" operator="equal">
       <formula>"关闭"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="18" stopIfTrue="1" operator="equal">
       <formula>"延迟"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="19" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="15" stopIfTrue="1" operator="equal">
       <formula>"关闭"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="16" stopIfTrue="1" operator="equal">
       <formula>"延迟"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="17" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="13" stopIfTrue="1" operator="equal">
       <formula>"关闭"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="14" stopIfTrue="1" operator="equal">
       <formula>"延迟"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="15" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" stopIfTrue="1" operator="equal">
       <formula>"关闭"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" stopIfTrue="1" operator="equal">
       <formula>"延迟"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="13" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" stopIfTrue="1" operator="equal">
       <formula>"关闭"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" stopIfTrue="1" operator="equal">
       <formula>"延迟"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="11" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" stopIfTrue="1" operator="equal">
       <formula>"关闭"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" stopIfTrue="1" operator="equal">
       <formula>"延迟"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="equal">
       <formula>"关闭"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="equal">
       <formula>"延迟"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ui/QMS Issue.xlsx
+++ b/ui/QMS Issue.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
   <si>
     <t>序号</t>
   </si>
@@ -224,6 +224,14 @@
   </si>
   <si>
     <t>售后质量(IOS无法下滑)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限在子页面刷新无效</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页菜单(堆叠)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -781,7 +789,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1065,10 +1073,22 @@
       <c r="A15" t="s">
         <v>38</v>
       </c>
+      <c r="B15" s="8">
+        <v>42970</v>
+      </c>
+      <c r="D15" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>39</v>
+      </c>
+      <c r="B16" s="8">
+        <v>42970</v>
+      </c>
+      <c r="D16" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/ui/QMS Issue.xlsx
+++ b/ui/QMS Issue.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
   <si>
     <t>序号</t>
   </si>
@@ -365,7 +365,23 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="样式 1" xfId="1"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -788,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1079,6 +1095,9 @@
       <c r="D15" t="s">
         <v>59</v>
       </c>
+      <c r="I15" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1094,6 +1113,14 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I1">
+    <cfRule type="cellIs" dxfId="19" priority="19" stopIfTrue="1" operator="equal">
+      <formula>"关闭"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="20" stopIfTrue="1" operator="equal">
+      <formula>"延迟"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2">
     <cfRule type="cellIs" dxfId="17" priority="17" stopIfTrue="1" operator="equal">
       <formula>"关闭"</formula>
     </cfRule>
@@ -1101,7 +1128,7 @@
       <formula>"延迟"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
+  <conditionalFormatting sqref="I3">
     <cfRule type="cellIs" dxfId="15" priority="15" stopIfTrue="1" operator="equal">
       <formula>"关闭"</formula>
     </cfRule>
@@ -1109,7 +1136,7 @@
       <formula>"延迟"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
+  <conditionalFormatting sqref="I5">
     <cfRule type="cellIs" dxfId="13" priority="13" stopIfTrue="1" operator="equal">
       <formula>"关闭"</formula>
     </cfRule>
@@ -1117,7 +1144,7 @@
       <formula>"延迟"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5">
+  <conditionalFormatting sqref="I4">
     <cfRule type="cellIs" dxfId="11" priority="11" stopIfTrue="1" operator="equal">
       <formula>"关闭"</formula>
     </cfRule>
@@ -1125,7 +1152,7 @@
       <formula>"延迟"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
+  <conditionalFormatting sqref="I7">
     <cfRule type="cellIs" dxfId="9" priority="9" stopIfTrue="1" operator="equal">
       <formula>"关闭"</formula>
     </cfRule>
@@ -1133,7 +1160,7 @@
       <formula>"延迟"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
+  <conditionalFormatting sqref="I6">
     <cfRule type="cellIs" dxfId="7" priority="7" stopIfTrue="1" operator="equal">
       <formula>"关闭"</formula>
     </cfRule>
@@ -1141,7 +1168,7 @@
       <formula>"延迟"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I6">
+  <conditionalFormatting sqref="I9">
     <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="equal">
       <formula>"关闭"</formula>
     </cfRule>
@@ -1149,7 +1176,7 @@
       <formula>"延迟"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I9">
+  <conditionalFormatting sqref="I10">
     <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
       <formula>"关闭"</formula>
     </cfRule>
@@ -1157,7 +1184,7 @@
       <formula>"延迟"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10">
+  <conditionalFormatting sqref="I15">
     <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>"关闭"</formula>
     </cfRule>
@@ -1166,7 +1193,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I7 I9:I10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I7 I9:I10 I15">
       <formula1>"关闭,进行中,未开始,延迟"</formula1>
     </dataValidation>
   </dataValidations>
